--- a/medicine/Mort/South_African_Air_Force_Memorial/South_African_Air_Force_Memorial.xlsx
+++ b/medicine/Mort/South_African_Air_Force_Memorial/South_African_Air_Force_Memorial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le South African Air Force Memorial est un monument consacré au personnel de la Force aérienne sud-africaine (la ''South African Air Force, SAAF) morts en service de 1915 à nos jours, en temps de guerre comme en temps de la paix.
 Le mémorial est situé près de Pretoria et surplombe l'Air Force Base Swartkop (en). Un service commémoratif annuel s'y déroule traditionnellement en mai.
